--- a/medicine/Enfance/Ben_Lucien_Burman/Ben_Lucien_Burman.xlsx
+++ b/medicine/Enfance/Ben_Lucien_Burman/Ben_Lucien_Burman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ben Lucien Burman (12 décembre 1895 – 12 novembre 1984) est un auteur et journaliste américain né à Covington, dans le Kentucky. diplômé de l'Université Harvard, il a combattu durant la Première Guerre mondiale et la Seconde Guerre mondiale. Il était marié à Alice Caddy, une illustratrice. Elle a illustré plusieurs des livres pour enfants écrits pour son mari, dont la série la plus populaire Catfish Bend. Cette série, qui se déroule à Catfish Bend, village fictif du Mississippi, raconte l'histoire de ses nombreux animaux résidents. Burman a été publié en onze langues.
 Burman est décédé en 1984 d'un accident vasculaire cérébral à l'âge de 88 ans.
